--- a/Calculators.xlsx
+++ b/Calculators.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Data" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Clock Rate" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="Data" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Clock Rate" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -393,7 +393,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -405,6 +405,10 @@
       <name val="VT323"/>
     </font>
     <font/>
+    <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <u/>
       <sz val="12.0"/>
@@ -640,7 +644,7 @@
     <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -664,10 +668,10 @@
     <xf borderId="15" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="14" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="14" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -741,11 +745,11 @@
             <c:size val="7"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="3366CC"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln cmpd="sng">
                 <a:solidFill>
-                  <a:srgbClr val="3366CC"/>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -769,11 +773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1781074026"/>
-        <c:axId val="593168799"/>
+        <c:axId val="1614467605"/>
+        <c:axId val="1072582072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1781074026"/>
+        <c:axId val="1614467605"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -842,10 +846,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593168799"/>
+        <c:crossAx val="1072582072"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="593168799"/>
+        <c:axId val="1072582072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -914,7 +918,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1781074026"/>
+        <c:crossAx val="1614467605"/>
       </c:valAx>
       <c:spPr>
         <a:solidFill>
@@ -930,7 +934,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr lvl="0">
-            <a:defRPr b="0">
+            <a:defRPr b="0" i="0">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -981,6 +985,200 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+  <a:themeElements>
+    <a:clrScheme name="Sheets">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="0000FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Sheets">
+      <a:majorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Calibri"/>
+        <a:cs typeface="Calibri"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3644,15 +3842,15 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="T1:T2"/>
     <mergeCell ref="K1:N1"/>
     <mergeCell ref="O1:P1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" location="cite_note-5" ref="H7"/>
